--- a/data/trans_dic/P23_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares</t>
+          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>12,62%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>15,54%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>12,68%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>14,03%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>15,48%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,39; 15,26</t>
+          <t>9,64; 15,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,12; 16,55</t>
+          <t>10,78; 17,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 16,77</t>
+          <t>11,17; 16,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,58</t>
+          <t>9,83; 15,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,42; 15,43</t>
+          <t>13,04; 18,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,68; 20,02</t>
+          <t>15,16; 21,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,02; 20,43</t>
+          <t>9,98; 15,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,04; 18,36</t>
+          <t>14,38; 19,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,43; 14,21</t>
+          <t>15,11; 20,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 16,98</t>
+          <t>10,8; 16,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,9; 18,0</t>
+          <t>13,22; 18,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,68; 17,53</t>
+          <t>11,66; 16,77</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10,68; 14,25</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>13,44; 17,64</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>13,73; 17,63</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>11,01; 15,39</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 17,32</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>14,23; 18,05</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>16,41%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>13,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>12,53%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>15,5%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>16,9%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 21,75</t>
+          <t>10,24; 19,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,24; 20,27</t>
+          <t>10,99; 18,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,13; 17,77</t>
+          <t>10,38; 17,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,97; 19,39</t>
+          <t>8,54; 15,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,79; 16,07</t>
+          <t>10,26; 19,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,01; 19,16</t>
+          <t>12,91; 22,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,33; 17,46</t>
+          <t>10,1; 16,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,49; 23,75</t>
+          <t>13,26; 19,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,31; 18,04</t>
+          <t>11,65; 18,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,01; 18,04</t>
+          <t>10,46; 16,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,36; 16,11</t>
+          <t>11,58; 22,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,16; 19,19</t>
+          <t>11,15; 22,55</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10,95; 16,5</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>12,84; 17,88</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>11,71; 16,8</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>10,24; 15,12</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>12,25; 19,3</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>13,62; 20,73</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>15,44%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,6%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>15,16%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>10,14%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>13,93%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>14,76%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>15,04%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10,47%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 15,46</t>
+          <t>4,45; 15,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 25,39</t>
+          <t>8,47; 27,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,29; 29,68</t>
+          <t>10,7; 32,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>8,36; 23,91</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 17,78</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 20,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 17,34</t>
+          <t>7,59; 19,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>10,12; 21,0</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7,79; 18,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 10,72</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 14,6</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>10,27; 20,43</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>10,74; 21,31</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 15,14</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10,65; 21,32</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>11,12; 22,3</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 15,14</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>15,29%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12,65%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>12,53%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>16,34%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>15,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>15,67%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>12,68%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>14,95%</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>14,92%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>15,48%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>16,22%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,58; 15,7</t>
+          <t>10,23; 14,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 16,44</t>
+          <t>11,76; 16,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 16,4</t>
+          <t>11,92; 16,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,89</t>
+          <t>10,37; 14,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 14,51</t>
+          <t>12,85; 17,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,66; 18,29</t>
+          <t>15,69; 20,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,72; 17,51</t>
+          <t>10,92; 14,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 18,15</t>
+          <t>14,5; 18,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 14,4</t>
+          <t>14,08; 17,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,52; 16,56</t>
+          <t>10,56; 14,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,31; 16,26</t>
+          <t>13,58; 18,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,91; 17,17</t>
+          <t>12,48; 17,13</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10,97; 13,89</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13,56; 16,63</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>13,64; 16,51</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 13,97</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>13,94; 17,13</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>14,6; 18,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares (tasa de respuesta: 99,72%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>197530</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>221968</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>221681</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>205307</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35386</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40808</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>223532</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>303826</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>322455</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>241191</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36530</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>32932</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>421062</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>525794</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>544137</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>446498</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>71915</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>73740</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>158636; 250986</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>176506; 291955</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>183413; 277011</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>159790; 258065</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>29686; 42697</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>34206; 48082</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>179051; 270614</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>260700; 355873</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>274878; 367859</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>194421; 303198</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31327; 42894</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>27356; 39370</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>367265; 490166</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>463708; 608869</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>475095; 610179</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>377246; 527317</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>62785; 80487</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>65524; 83087</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>183771</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>190198</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>181764</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>160285</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10476</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12634</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>179789</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>219457</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>198348</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>186796</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10895</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10981</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>363560</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>409655</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>380112</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>347081</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>21371</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>23615</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>139958; 261694</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>149838; 255913</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>142270; 239934</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>118274; 212324</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7416; 13954</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9395; 16249</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>139927; 231051</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>180576; 264216</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>159606; 252470</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>144849; 233741</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7595; 15063</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7462; 15093</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>301285; 453937</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>349900; 487240</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>320868; 460630</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>283644; 418730</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>16888; 26601</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>19032; 28965</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36778</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>61091</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>75167</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>63419</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50863</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>61806</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>50019</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22528</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>87641</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>122896</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>125185</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>85947</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18468; 62819</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35451; 115137</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>45238; 135941</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34338; 98230</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>31249; 79662</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41269; 85609</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31884; 73751</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10364; 43915</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>60428; 125129</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>87964; 176158</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>92559; 185572</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>52674; 124241</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>459.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>462.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>418080</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>473257</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>478612</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>429010</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>45862</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>53442</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>454184</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>585089</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>570822</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>450516</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>47425</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>43912</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>872264</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1058346</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1049434</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>879526</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>93287</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>97355</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>350546; 501785</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>402166; 574946</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>409697; 562303</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>354738; 503845</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>38548; 52919</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>46833; 61972</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>392005; 536552</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>519653; 651772</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>506563; 644683</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>379668; 526779</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>41080; 54638</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>37654; 51676</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>769826; 974844</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>949702; 1164483</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>959413; 1161415</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>767788; 980027</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>83963; 103192</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>87631; 108401</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
